--- a/LR3/table_1_28.xlsx
+++ b/LR3/table_1_28.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{966ED115-CC01-418E-A602-85F545E0B362}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54C01B-67D0-4BA9-B0F0-FEDE4F98D1B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{3C1F97FF-0078-4AC9-9C26-F71E0158A819}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4110962-7CFD-4E2B-BBCF-670B3D1D4D49}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_28.xlsx
+++ b/LR3/table_1_28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54C01B-67D0-4BA9-B0F0-FEDE4F98D1B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88296ECE-D466-4375-B08A-B02C8FC82035}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{3C1F97FF-0078-4AC9-9C26-F71E0158A819}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Аминова</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,34 +583,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>70</v>
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <f>C3-0.5</f>
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <f t="shared" si="5"/>
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <f t="shared" si="5"/>
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <f t="shared" si="5"/>
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
@@ -904,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <f t="shared" si="5"/>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <f t="shared" si="5"/>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <f t="shared" si="5"/>
@@ -1068,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <f t="shared" si="5"/>
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
@@ -1150,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
@@ -1191,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
@@ -1232,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
@@ -1273,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
@@ -1314,7 +1314,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
@@ -1355,7 +1355,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
@@ -1396,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
@@ -1437,7 +1437,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <f t="shared" si="5"/>
@@ -1478,7 +1478,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <f t="shared" si="5"/>
@@ -1519,7 +1519,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <f t="shared" si="5"/>
@@ -1560,7 +1560,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
@@ -1601,7 +1601,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <f t="shared" si="5"/>
@@ -1642,7 +1642,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <f t="shared" si="5"/>
@@ -1683,7 +1683,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <f t="shared" si="5"/>
@@ -1724,7 +1724,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <f t="shared" si="5"/>
@@ -1765,7 +1765,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <f t="shared" si="5"/>
@@ -1806,7 +1806,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <f t="shared" si="5"/>
@@ -1847,7 +1847,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <f t="shared" si="5"/>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <f t="shared" si="5"/>
@@ -1929,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <f t="shared" si="5"/>
@@ -1970,7 +1970,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <f t="shared" si="5"/>
@@ -2011,7 +2011,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
@@ -2052,7 +2052,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_28.xlsx
+++ b/LR3/table_1_28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88296ECE-D466-4375-B08A-B02C8FC82035}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A964D-B402-4471-8B60-ECB23AAC142D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{3C1F97FF-0078-4AC9-9C26-F71E0158A819}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t xml:space="preserve">Дуболазов </t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4110962-7CFD-4E2B-BBCF-670B3D1D4D49}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>35</v>
@@ -601,16 +601,16 @@
         <v>36</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_28.xlsx
+++ b/LR3/table_1_28.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7EA777F-0072-4CD2-8F85-1514E246C3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7658B3-4009-46B8-AF2C-6FE4A5774B42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1845" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -492,22 +481,20 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>28</v>
       </c>
@@ -522,7 +509,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -557,7 +544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -597,7 +584,7 @@
         <v>2156.0000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>A3+1</f>
         <v>2</v>
@@ -642,7 +629,7 @@
         <v>2140.6000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
@@ -687,7 +674,7 @@
         <v>2125.2000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -732,7 +719,7 @@
         <v>2109.8000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -777,7 +764,7 @@
         <v>2094.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -822,7 +809,7 @@
         <v>2079.0000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -867,7 +854,7 @@
         <v>2063.6000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -912,7 +899,7 @@
         <v>2048.2000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -957,7 +944,7 @@
         <v>2032.8000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1002,7 +989,7 @@
         <v>2027.4000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1047,7 +1034,7 @@
         <v>2022.0000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1092,7 +1079,7 @@
         <v>2016.6000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1137,7 +1124,7 @@
         <v>2011.2000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1182,7 +1169,7 @@
         <v>2005.8000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1227,7 +1214,7 @@
         <v>2000.4000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1272,7 +1259,7 @@
         <v>1995.0000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1317,7 +1304,7 @@
         <v>1989.6000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -1362,7 +1349,7 @@
         <v>1984.2000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -1407,7 +1394,7 @@
         <v>1978.8000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1452,7 +1439,7 @@
         <v>1973.4000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -1497,7 +1484,7 @@
         <v>1968.0000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -1542,7 +1529,7 @@
         <v>1962.6000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -1587,7 +1574,7 @@
         <v>1957.2000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -1632,7 +1619,7 @@
         <v>1951.8000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -1677,7 +1664,7 @@
         <v>1946.4000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -1722,7 +1709,7 @@
         <v>1941.0000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -1767,7 +1754,7 @@
         <v>1935.6000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -1812,7 +1799,7 @@
         <v>1930.2000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -1857,7 +1844,7 @@
         <v>1924.8000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1902,7 +1889,7 @@
         <v>1919.4000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -1947,7 +1934,7 @@
         <v>1914.0000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -1992,7 +1979,7 @@
         <v>1908.6000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -2037,7 +2024,7 @@
         <v>1071.6000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -2082,7 +2069,7 @@
         <v>1073.9000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -2127,7 +2114,7 @@
         <v>1076.2000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -2172,14 +2159,14 @@
         <v>1078.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="9" t="s">
         <v>45</v>
@@ -2191,7 +2178,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="9" t="s">
         <v>46</v>
@@ -2203,7 +2190,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="9" t="s">
         <v>47</v>
@@ -2215,7 +2202,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="9" t="s">
         <v>48</v>
@@ -2227,7 +2214,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="1000" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1000" s="2"/>
     </row>
   </sheetData>
